--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb2-Grm5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb2-Grm5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H2">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I2">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J2">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,22 +558,22 @@
         <v>0.007863999999999999</v>
       </c>
       <c r="O2">
-        <v>0.2048663575261814</v>
+        <v>0.1651823222987733</v>
       </c>
       <c r="P2">
-        <v>0.2048663575261814</v>
+        <v>0.1651823222987733</v>
       </c>
       <c r="Q2">
-        <v>0.09672626418399999</v>
+        <v>0.09684349370577777</v>
       </c>
       <c r="R2">
-        <v>0.8705363776559999</v>
+        <v>0.871591443352</v>
       </c>
       <c r="S2">
-        <v>0.1483016426705026</v>
+        <v>0.1375797777058498</v>
       </c>
       <c r="T2">
-        <v>0.1483016426705026</v>
+        <v>0.1375797777058498</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,46 +596,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H3">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I3">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J3">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.010174</v>
+        <v>0.013248</v>
       </c>
       <c r="N3">
-        <v>0.030522</v>
+        <v>0.039744</v>
       </c>
       <c r="O3">
-        <v>0.7951336424738186</v>
+        <v>0.8348176777012268</v>
       </c>
       <c r="P3">
-        <v>0.7951336424738186</v>
+        <v>0.8348176777012267</v>
       </c>
       <c r="Q3">
-        <v>0.375416967882</v>
+        <v>0.489438938688</v>
       </c>
       <c r="R3">
-        <v>3.378752710938</v>
+        <v>4.404950448192</v>
       </c>
       <c r="S3">
-        <v>0.5755929218704326</v>
+        <v>0.6953167198806327</v>
       </c>
       <c r="T3">
-        <v>0.5755929218704326</v>
+        <v>0.6953167198806327</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>10.124457</v>
       </c>
       <c r="I4">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J4">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,10 +682,10 @@
         <v>0.007863999999999999</v>
       </c>
       <c r="O4">
-        <v>0.2048663575261814</v>
+        <v>0.1651823222987733</v>
       </c>
       <c r="P4">
-        <v>0.2048663575261814</v>
+        <v>0.1651823222987733</v>
       </c>
       <c r="Q4">
         <v>0.008846525538666666</v>
@@ -694,10 +694,10 @@
         <v>0.07961872984799999</v>
       </c>
       <c r="S4">
-        <v>0.01356357841769968</v>
+        <v>0.0125677314035839</v>
       </c>
       <c r="T4">
-        <v>0.01356357841769968</v>
+        <v>0.0125677314035839</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>10.124457</v>
       </c>
       <c r="I5">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J5">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.010174</v>
+        <v>0.013248</v>
       </c>
       <c r="N5">
-        <v>0.030522</v>
+        <v>0.039744</v>
       </c>
       <c r="O5">
-        <v>0.7951336424738186</v>
+        <v>0.8348176777012268</v>
       </c>
       <c r="P5">
-        <v>0.7951336424738186</v>
+        <v>0.8348176777012267</v>
       </c>
       <c r="Q5">
-        <v>0.034335408506</v>
+        <v>0.044709602112</v>
       </c>
       <c r="R5">
-        <v>0.309018676554</v>
+        <v>0.402386419008</v>
       </c>
       <c r="S5">
-        <v>0.05264338001844223</v>
+        <v>0.0635162661373396</v>
       </c>
       <c r="T5">
-        <v>0.05264338001844223</v>
+        <v>0.06351626613733959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.699319</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H6">
-        <v>32.09795699999999</v>
+        <v>12.111917</v>
       </c>
       <c r="I6">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J6">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,22 +806,22 @@
         <v>0.007863999999999999</v>
       </c>
       <c r="O6">
-        <v>0.2048663575261814</v>
+        <v>0.1651823222987733</v>
       </c>
       <c r="P6">
-        <v>0.2048663575261814</v>
+        <v>0.1651823222987733</v>
       </c>
       <c r="Q6">
-        <v>0.02804648153866666</v>
+        <v>0.01058312392088889</v>
       </c>
       <c r="R6">
-        <v>0.2524183338479999</v>
+        <v>0.09524811528800001</v>
       </c>
       <c r="S6">
-        <v>0.04300113643797907</v>
+        <v>0.01503481318933961</v>
       </c>
       <c r="T6">
-        <v>0.04300113643797907</v>
+        <v>0.01503481318933961</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.699319</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H7">
-        <v>32.09795699999999</v>
+        <v>12.111917</v>
       </c>
       <c r="I7">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J7">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.010174</v>
+        <v>0.013248</v>
       </c>
       <c r="N7">
-        <v>0.030522</v>
+        <v>0.039744</v>
       </c>
       <c r="O7">
-        <v>0.7951336424738186</v>
+        <v>0.8348176777012268</v>
       </c>
       <c r="P7">
-        <v>0.7951336424738186</v>
+        <v>0.8348176777012267</v>
       </c>
       <c r="Q7">
-        <v>0.108854871506</v>
+        <v>0.05348622547200001</v>
       </c>
       <c r="R7">
-        <v>0.9796938435539999</v>
+        <v>0.4813760292480001</v>
       </c>
       <c r="S7">
-        <v>0.1668973405849437</v>
+        <v>0.07598469168325452</v>
       </c>
       <c r="T7">
-        <v>0.1668973405849437</v>
+        <v>0.0759846916832545</v>
       </c>
     </row>
   </sheetData>
